--- a/experiments/pg/start_from_m1_6_1_max_step_2_step_num_4_ret_norm_gamma_0_1/log.xlsx
+++ b/experiments/pg/start_from_m1_6_1_max_step_2_step_num_4_ret_norm_gamma_0_1/log.xlsx
@@ -496,16 +496,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6371262669563293</v>
+        <v>2.312100648880005</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -530,16 +530,16 @@
         <v>1.327811858607995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6276087164878845</v>
+        <v>0.9512099027633667</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.16840645670890808, 0.6835075616836548, 0.14808592200279236]</t>
+          <t>[0.16558408737182617, 0.6879599690437317, 0.14645594358444214]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[0.7444713115692139, 0.15674297511577606, 0.04271727800369263, 0.05606844648718834]</t>
+          <t>[0.7732007503509521, 0.1303665190935135, 0.0418969951570034, 0.05453574284911156]</t>
         </is>
       </c>
     </row>
@@ -564,16 +564,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6246660351753235</v>
+        <v>0.4339012503623962</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.17405514419078827, 0.6842784285545349, 0.1416664570569992]</t>
+          <t>[0.17054899036884308, 0.6886512637138367, 0.14079974591732025]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0.6773796081542969, 0.21039405465126038, 0.05127729848027229, 0.06094904989004135]</t>
+          <t>[0.7037734389305115, 0.18335501849651337, 0.05133349820971489, 0.06153804063796997]</t>
         </is>
       </c>
     </row>
@@ -598,16 +598,16 @@
         <v>1.326616768245628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5030063986778259</v>
+        <v>0.2114428728818893</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.178106427192688, 0.7029502987861633, 0.11894331872463226]</t>
+          <t>[0.1751357614994049, 0.702494740486145, 0.1223694384098053]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.6754734516143799, 0.20959943532943726, 0.05547556281089783, 0.05945158004760742]</t>
+          <t>[0.6882268786430359, 0.19529321789741516, 0.055043842643499374, 0.06143607571721077]</t>
         </is>
       </c>
     </row>
@@ -632,16 +632,16 @@
         <v>0.1537383059907924</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.467124879360199</v>
+        <v>-0.5263078212738037</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -666,16 +666,16 @@
         <v>0.1623770266700048</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4607405066490173</v>
+        <v>-0.512164294719696</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.18028949201107025, 0.6664734482765198, 0.15323711931705475]</t>
+          <t>[0.17667633295059204, 0.6722461581230164, 0.1510775238275528]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.7408145666122437, 0.15216991305351257, 0.05201354995369911, 0.05500197038054466]</t>
+          <t>[0.7661446928977966, 0.12741921842098236, 0.05197717249393463, 0.05445895716547966]</t>
         </is>
       </c>
     </row>
@@ -700,16 +700,16 @@
         <v>0.1552484097565967</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4694601595401764</v>
+        <v>-0.5173484683036804</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.15754075348377228, 0.7207615375518799, 0.12169767171144485]</t>
+          <t>[0.1573100984096527, 0.7208989858627319, 0.12179090827703476]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.7458975911140442, 0.15708409249782562, 0.04194706305861473, 0.05507132038474083]</t>
+          <t>[0.7650763988494873, 0.13773462176322937, 0.041858915239572525, 0.055330123752355576]</t>
         </is>
       </c>
     </row>
@@ -734,16 +734,16 @@
         <v>0.1363621620876735</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4967782199382782</v>
+        <v>-0.5266801714897156</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.16578209400177002, 0.7112171053886414, 0.12300083041191101]</t>
+          <t>[0.16694658994674683, 0.7057788372039795, 0.1272744983434677]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.733712911605835, 0.15375711023807526, 0.05642502009868622, 0.056105006486177444]</t>
+          <t>[0.7371699213981628, 0.14762897789478302, 0.057091280817985535, 0.0581098310649395]</t>
         </is>
       </c>
     </row>
@@ -768,16 +768,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6290045976638794</v>
+        <v>2.291224479675293</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -802,16 +802,16 @@
         <v>1.326616768245628</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5463922619819641</v>
+        <v>0.8420077562332153</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.16840645670890808, 0.6835075616836548, 0.14808592200279236]</t>
+          <t>[0.16558408737182617, 0.6879599690437317, 0.14645594358444214]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.7444713115692139, 0.15674297511577606, 0.04271727800369263, 0.05606844648718834]</t>
+          <t>[0.7732007503509521, 0.1303665190935135, 0.0418969951570034, 0.05453574284911156]</t>
         </is>
       </c>
     </row>
@@ -836,16 +836,16 @@
         <v>0.5033221687376704</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1774602383375168</v>
+        <v>-0.2634793519973755</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.16536259651184082, 0.6935750246047974, 0.1410624384880066]</t>
+          <t>[0.16618438065052032, 0.6894693970680237, 0.1443462371826172]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.7424485087394714, 0.14115029573440552, 0.058321595191955566, 0.0580795593559742]</t>
+          <t>[0.7497788071632385, 0.13203388452529907, 0.05866936594247818, 0.059517957270145416]</t>
         </is>
       </c>
     </row>
@@ -870,16 +870,16 @@
         <v>0.1319156048814135</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5005132555961609</v>
+        <v>-0.5294376611709595</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.18035659193992615, 0.6870337724685669, 0.13260960578918457]</t>
+          <t>[0.17976458370685577, 0.6819366812705994, 0.13829876482486725]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.7062364816665649, 0.17237821221351624, 0.06161842495203018, 0.059766847640275955]</t>
+          <t>[0.7080119252204895, 0.16769841313362122, 0.06217413768172264, 0.06211555004119873]</t>
         </is>
       </c>
     </row>
@@ -904,16 +904,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4626206457614899</v>
+        <v>-0.5147299766540527</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -938,16 +938,16 @@
         <v>0.1559123897833419</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4656146764755249</v>
+        <v>-0.5187180042266846</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.1695391982793808, 0.6873301863670349, 0.14313064515590668]</t>
+          <t>[0.16628411412239075, 0.6924717426300049, 0.14124412834644318]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.7332367897033691, 0.16752353310585022, 0.044218529015779495, 0.05502113699913025]</t>
+          <t>[0.7641195058822632, 0.1382131278514862, 0.043834224343299866, 0.053833089768886566]</t>
         </is>
       </c>
     </row>
@@ -972,16 +972,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.463900238275528</v>
+        <v>-0.512514591217041</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.17199216783046722, 0.6945222616195679, 0.13348554074764252]</t>
+          <t>[0.16852356493473053, 0.6991167664527893, 0.13235963881015778]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.6782968044281006, 0.21100735664367676, 0.050969455391168594, 0.05972639098763466]</t>
+          <t>[0.7115755677223206, 0.17820614576339722, 0.0507572665810585, 0.05946100875735283]</t>
         </is>
       </c>
     </row>
@@ -1006,16 +1006,16 @@
         <v>0.1582288502237622</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4784107506275177</v>
+        <v>-0.5131198167800903</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.17224688827991486, 0.7026616334915161, 0.12509146332740784]</t>
+          <t>[0.1697632223367691, 0.7045198678970337, 0.125716894865036]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0.6739856004714966, 0.21353818476200104, 0.0538676492869854, 0.05860861390829086]</t>
+          <t>[0.6950492858886719, 0.19118061661720276, 0.0539945550262928, 0.05977556109428406]</t>
         </is>
       </c>
     </row>
@@ -1040,16 +1040,16 @@
         <v>0.1537383059907924</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4573141038417816</v>
+        <v>-0.501089870929718</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
         <v>0.1623770266700048</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3626331388950348</v>
+        <v>-0.3802509307861328</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.18028949201107025, 0.6664734482765198, 0.15323711931705475]</t>
+          <t>[0.17667633295059204, 0.6722461581230164, 0.1510775238275528]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0.7408145666122437, 0.15216991305351257, 0.05201354995369911, 0.05500197038054466]</t>
+          <t>[0.7661446928977966, 0.12741921842098236, 0.05197717249393463, 0.05445895716547966]</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1108,16 @@
         <v>1.320625932598234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5116134881973267</v>
+        <v>0.3356117010116577</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.15754075348377228, 0.7207615375518799, 0.12169767171144485]</t>
+          <t>[0.1573100984096527, 0.7208989858627319, 0.12179090827703476]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.7458975911140442, 0.15708409249782562, 0.04194706305861473, 0.05507132038474083]</t>
+          <t>[0.7650763988494873, 0.13773462176322937, 0.041858915239572525, 0.055330123752355576]</t>
         </is>
       </c>
     </row>
@@ -1142,16 +1142,16 @@
         <v>0.1623770266700048</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4749264419078827</v>
+        <v>-0.5105473399162292</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.1723662167787552, 0.7224346995353699, 0.10519909113645554]</t>
+          <t>[0.17131149768829346, 0.7192575931549072, 0.10943090170621872]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0.7144094705581665, 0.174363374710083, 0.05209294706583023, 0.059134259819984436]</t>
+          <t>[0.7225134372711182, 0.16462522745132446, 0.051559802144765854, 0.06130143254995346]</t>
         </is>
       </c>
     </row>
@@ -1176,16 +1176,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4521592557430267</v>
+        <v>-0.4878396391868591</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1210,16 +1210,16 @@
         <v>0.1582288502237622</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3610008060932159</v>
+        <v>-0.3780561089515686</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.1695391982793808, 0.6873301863670349, 0.14313064515590668]</t>
+          <t>[0.16628411412239075, 0.6924717426300049, 0.14124412834644318]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[0.7332367897033691, 0.16752353310585022, 0.044218529015779495, 0.05502113699913025]</t>
+          <t>[0.7641195058822632, 0.1382131278514862, 0.043834224343299866, 0.053833089768886566]</t>
         </is>
       </c>
     </row>
@@ -1244,16 +1244,16 @@
         <v>1.276328901586559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5627807378768921</v>
+        <v>0.3800972402095795</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.15820889174938202, 0.7274637222290039, 0.11432735621929169]</t>
+          <t>[0.15758749842643738, 0.7272229194641113, 0.1151895597577095]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[0.7359875440597534, 0.1619747132062912, 0.044113077223300934, 0.05792466551065445]</t>
+          <t>[0.7566728591918945, 0.14162996411323547, 0.043719399720430374, 0.05797776207327843]</t>
         </is>
       </c>
     </row>
@@ -1278,16 +1278,16 @@
         <v>1.21449860406346</v>
       </c>
       <c r="F25" t="n">
-        <v>0.408829927444458</v>
+        <v>0.1419140696525574</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.18448200821876526, 0.7192808985710144, 0.09623708575963974]</t>
+          <t>[0.18139426410198212, 0.7176902890205383, 0.10091543942689896]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[0.7081685662269592, 0.17122957110404968, 0.05737869814038277, 0.06322319805622101]</t>
+          <t>[0.7183984518051147, 0.16032399237155914, 0.056125253438949585, 0.06515233218669891]</t>
         </is>
       </c>
     </row>
@@ -1312,16 +1312,16 @@
         <v>0.1511105560079979</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4584855139255524</v>
+        <v>-0.5041009187698364</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1346,16 +1346,16 @@
         <v>0.1553890793791493</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3522748053073883</v>
+        <v>-0.3663232922554016</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.17907020449638367, 0.660624623298645, 0.1603051722049713]</t>
+          <t>[0.1784929633140564, 0.6617700457572937, 0.15973693132400513]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.7575111985206604, 0.11925046145915985, 0.06599605828523636, 0.0572422631084919]</t>
+          <t>[0.771125853061676, 0.10584939271211624, 0.06554736942052841, 0.057477325201034546]</t>
         </is>
       </c>
     </row>
@@ -1380,16 +1380,16 @@
         <v>1.267018037311252</v>
       </c>
       <c r="F28" t="n">
-        <v>0.673893928527832</v>
+        <v>0.4767007529735565</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.16264024376869202, 0.717749834060669, 0.11960986256599426]</t>
+          <t>[0.16443471610546112, 0.7137653231620789, 0.12179994583129883]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.7665308117866516, 0.12629805505275726, 0.052682824432849884, 0.05448829382658005]</t>
+          <t>[0.7748955488204956, 0.11692188680171967, 0.05279117822647095, 0.05539141222834587]</t>
         </is>
       </c>
     </row>
@@ -1414,16 +1414,16 @@
         <v>2.630422445446154</v>
       </c>
       <c r="F29" t="n">
-        <v>1.59817111492157</v>
+        <v>1.019983291625977</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.16677486896514893, 0.7337905168533325, 0.09943459182977676]</t>
+          <t>[0.16809296607971191, 0.7259749174118042, 0.10593210905790329]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.728976309299469, 0.14681857824325562, 0.0617578849196434, 0.0624472014605999]</t>
+          <t>[0.7257223725318909, 0.14667212963104248, 0.061987269669771194, 0.06561826914548874]</t>
         </is>
       </c>
     </row>
@@ -1448,16 +1448,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4627151191234589</v>
+        <v>-0.5149728655815125</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1482,16 +1482,16 @@
         <v>0.1547646278697519</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4665597379207611</v>
+        <v>-0.5199886560440063</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.1695391982793808, 0.6873301863670349, 0.14313064515590668]</t>
+          <t>[0.16628411412239075, 0.6924717426300049, 0.14124412834644318]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.7332367897033691, 0.16752353310585022, 0.044218529015779495, 0.05502113699913025]</t>
+          <t>[0.7641195058822632, 0.1382131278514862, 0.043834224343299866, 0.053833089768886566]</t>
         </is>
       </c>
     </row>
@@ -1516,16 +1516,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.463709831237793</v>
+        <v>-0.512349009513855</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.17803627252578735, 0.6809097528457642, 0.1410539746284485]</t>
+          <t>[0.1742326319217682, 0.6862360835075378, 0.13953129947185516]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.6829774379730225, 0.20419102907180786, 0.05344817787408829, 0.059383418411016464]</t>
+          <t>[0.7119869589805603, 0.17480653524398804, 0.05364366993308067, 0.05956286936998367]</t>
         </is>
       </c>
     </row>
@@ -1550,16 +1550,16 @@
         <v>0.1604954976794293</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4765068292617798</v>
+        <v>-0.5117141604423523</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.17224688827991486, 0.7026616334915161, 0.12509146332740784]</t>
+          <t>[0.1697632223367691, 0.7045198678970337, 0.125716894865036]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.6739856004714966, 0.21353818476200104, 0.0538676492869854, 0.05860861390829086]</t>
+          <t>[0.6950492858886719, 0.19118061661720276, 0.0539945550262928, 0.05977556109428406]</t>
         </is>
       </c>
     </row>
@@ -1584,16 +1584,16 @@
         <v>0.1416062084368513</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4797772765159607</v>
+        <v>-0.5588299632072449</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1618,16 +1618,16 @@
         <v>0.1350232116928354</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4853578209877014</v>
+        <v>-0.5452642440795898</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.17159704864025116, 0.6847022771835327, 0.14370062947273254]</t>
+          <t>[0.16919544339179993, 0.688909113407135, 0.14189545810222626]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.7551458477973938, 0.14610259234905243, 0.0456184484064579, 0.05313306301832199]</t>
+          <t>[0.779432475566864, 0.12278223037719727, 0.04535440728068352, 0.05243085324764252]</t>
         </is>
       </c>
     </row>
@@ -1652,16 +1652,16 @@
         <v>0.1350232116928354</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4858679473400116</v>
+        <v>-0.5316136479377747</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.17413276433944702, 0.6819577217102051, 0.1439094841480255]</t>
+          <t>[0.1715240776538849, 0.6857714653015137, 0.14270448684692383]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0.7099972367286682, 0.17876094579696655, 0.05330979824066162, 0.05793198198080063]</t>
+          <t>[0.7320766448974609, 0.15589658915996552, 0.05361299589276314, 0.05841377004981041]</t>
         </is>
       </c>
     </row>
@@ -1686,16 +1686,16 @@
         <v>0.1432782874156073</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4909688532352448</v>
+        <v>-0.5223912000656128</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.1798529475927353, 0.6808829307556152, 0.1392640918493271]</t>
+          <t>[0.17705656588077545, 0.68308424949646, 0.1398591846227646]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[0.6704286336898804, 0.21022194623947144, 0.058790773153305054, 0.06055864691734314]</t>
+          <t>[0.6873708367347717, 0.19152820110321045, 0.05919940769672394, 0.06190156564116478]</t>
         </is>
       </c>
     </row>
@@ -1720,16 +1720,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6449328064918518</v>
+        <v>2.332166910171509</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1754,16 +1754,16 @@
         <v>1.278136842127399</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7056748270988464</v>
+        <v>1.05617618560791</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.16840645670890808, 0.6835075616836548, 0.14808592200279236]</t>
+          <t>[0.16558408737182617, 0.6879599690437317, 0.14645594358444214]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0.7444713115692139, 0.15674297511577606, 0.04271727800369263, 0.05606844648718834]</t>
+          <t>[0.7732007503509521, 0.1303665190935135, 0.0418969951570034, 0.05453574284911156]</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
         <v>2.648453569324835</v>
       </c>
       <c r="F40" t="n">
-        <v>1.822584629058838</v>
+        <v>1.47538948059082</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.16250170767307281, 0.7334960103034973, 0.10400228947401047]</t>
+          <t>[0.16263526678085327, 0.7305313348770142, 0.10683339089155197]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0.7427530288696289, 0.14898604154586792, 0.0466977097094059, 0.061563197523355484]</t>
+          <t>[0.7566027641296387, 0.1351204365491867, 0.04605424031615257, 0.06222245469689369]</t>
         </is>
       </c>
     </row>
@@ -1822,16 +1822,16 @@
         <v>2.491354167095853</v>
       </c>
       <c r="F41" t="n">
-        <v>1.481357216835022</v>
+        <v>0.9337416887283325</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.18675385415554047, 0.7249305844306946, 0.08831558376550674]</t>
+          <t>[0.18373362720012665, 0.7209721207618713, 0.09529424458742142]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0.713499128818512, 0.15754608809947968, 0.061805907636880875, 0.06714880466461182]</t>
+          <t>[0.7149279117584229, 0.1544571965932846, 0.060356661677360535, 0.07025821506977081]</t>
         </is>
       </c>
     </row>
@@ -1856,16 +1856,16 @@
         <v>0.1559123897833419</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4668508470058441</v>
+        <v>-0.5256035327911377</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -1890,16 +1890,16 @@
         <v>0.1450427254144344</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4762623608112335</v>
+        <v>-0.5330346822738647</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.1716381013393402, 0.6796090006828308, 0.14875289797782898]</t>
+          <t>[0.16777198016643524, 0.6852556467056274, 0.1469723880290985]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0.6989771723747253, 0.1925467550754547, 0.049689047038555145, 0.058787014335393906]</t>
+          <t>[0.7356175184249878, 0.1578771471977234, 0.04911443963646889, 0.05739086866378784]</t>
         </is>
       </c>
     </row>
@@ -1924,16 +1924,16 @@
         <v>0.1450841351672169</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4790749251842499</v>
+        <v>-0.5257076621055603</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.20242705941200256, 0.6372296214103699, 0.16034336388111115]</t>
+          <t>[0.19623811542987823, 0.6450536847114563, 0.15870827436447144]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0.6203581094741821, 0.24165286123752594, 0.07212523370981216, 0.06586382538080215]</t>
+          <t>[0.6556293964385986, 0.20664913952350616, 0.07192156463861465, 0.06579992920160294]</t>
         </is>
       </c>
     </row>
@@ -1958,16 +1958,16 @@
         <v>0.1235402986833984</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5075483322143555</v>
+        <v>-0.5346314907073975</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.2065194845199585, 0.6391782760620117, 0.15430228412151337]</t>
+          <t>[0.20019958913326263, 0.6453426480293274, 0.15445776283740997]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0.588312029838562, 0.2695966958999634, 0.07510100305080414, 0.06699027121067047]</t>
+          <t>[0.6124025583267212, 0.2442542016506195, 0.07501573860645294, 0.06832752376794815]</t>
         </is>
       </c>
     </row>
@@ -1992,16 +1992,16 @@
         <v>0.1559123897833419</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.3568619191646576</v>
+        <v>-0.2428837567567825</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2026,16 +2026,16 @@
         <v>1.331840627236623</v>
       </c>
       <c r="F47" t="n">
-        <v>0.623627245426178</v>
+        <v>0.9458564519882202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.1716381013393402, 0.6796090006828308, 0.14875289797782898]</t>
+          <t>[0.16777198016643524, 0.6852556467056274, 0.1469723880290985]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0.6989771723747253, 0.1925467550754547, 0.049689047038555145, 0.058787014335393906]</t>
+          <t>[0.7356175184249878, 0.1578771471977234, 0.04911443963646889, 0.05739086866378784]</t>
         </is>
       </c>
     </row>
@@ -2060,16 +2060,16 @@
         <v>1.270798419738317</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5510101914405823</v>
+        <v>0.3698637783527374</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.18822365999221802, 0.6727138161659241, 0.13906250894069672]</t>
+          <t>[0.18291249871253967, 0.6782416105270386, 0.13884593546390533]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0.633244514465332, 0.2441491186618805, 0.05764223262667656, 0.0649641752243042]</t>
+          <t>[0.673006534576416, 0.20597238838672638, 0.05652913823723793, 0.06449193507432938]</t>
         </is>
       </c>
     </row>
@@ -2094,16 +2094,16 @@
         <v>1.129673847164805</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3375791609287262</v>
+        <v>0.08931092172861099</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.2081262320280075, 0.6890982389450073, 0.10277552902698517]</t>
+          <t>[0.20151396095752716, 0.6912985444068909, 0.1071874275803566]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0.6783530712127686, 0.1914844661951065, 0.06361301243305206, 0.06654942780733109]</t>
+          <t>[0.6951791048049927, 0.1753302663564682, 0.06152774766087532, 0.06796287000179291]</t>
         </is>
       </c>
     </row>
@@ -2128,16 +2128,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6369838714599609</v>
+        <v>2.311734676361084</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2162,16 +2162,16 @@
         <v>1.327811858607995</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6261850595474243</v>
+        <v>0.9492956399917603</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.16840645670890808, 0.6835075616836548, 0.14808592200279236]</t>
+          <t>[0.16558408737182617, 0.6879599690437317, 0.14645594358444214]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0.7444713115692139, 0.15674297511577606, 0.04271727800369263, 0.05606844648718834]</t>
+          <t>[0.7732007503509521, 0.1303665190935135, 0.0418969951570034, 0.05453574284911156]</t>
         </is>
       </c>
     </row>
@@ -2196,16 +2196,16 @@
         <v>1.320625932598234</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6104294657707214</v>
+        <v>0.4215237498283386</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.17405514419078827, 0.6842784285545349, 0.1416664570569992]</t>
+          <t>[0.17054899036884308, 0.6886512637138367, 0.14079974591732025]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0.6773796081542969, 0.21039405465126038, 0.05127729848027229, 0.06094904989004135]</t>
+          <t>[0.7037734389305115, 0.18335501849651337, 0.05133349820971489, 0.06153804063796997]</t>
         </is>
       </c>
     </row>
@@ -2230,16 +2230,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F53" t="n">
-        <v>0.513233482837677</v>
+        <v>0.2189933359622955</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.1723662167787552, 0.7224346995353699, 0.10519909113645554]</t>
+          <t>[0.17131149768829346, 0.7192575931549072, 0.10943090170621872]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0.7144094705581665, 0.174363374710083, 0.05209294706583023, 0.059134259819984436]</t>
+          <t>[0.7225134372711182, 0.16462522745132446, 0.051559802144765854, 0.06130143254995346]</t>
         </is>
       </c>
     </row>
@@ -2264,16 +2264,16 @@
         <v>0.5134065614280353</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08234652131795883</v>
+        <v>0.8860740661621094</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2298,16 +2298,16 @@
         <v>2.815518662744684</v>
       </c>
       <c r="F55" t="n">
-        <v>2.012848138809204</v>
+        <v>2.813777208328247</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.16934606432914734, 0.685961127281189, 0.14469274878501892]</t>
+          <t>[0.16671524941921234, 0.6903559565544128, 0.142928808927536]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0.7525295615196228, 0.15062718093395233, 0.04275607690215111, 0.054087162017822266]</t>
+          <t>[0.7792732119560242, 0.1256052553653717, 0.042198337614536285, 0.05292318016290665]</t>
         </is>
       </c>
     </row>
@@ -2332,16 +2332,16 @@
         <v>2.804523801873941</v>
       </c>
       <c r="F56" t="n">
-        <v>1.980690360069275</v>
+        <v>1.612849116325378</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.1635272353887558, 0.7137336134910583, 0.12273921072483063]</t>
+          <t>[0.16170822083950043, 0.7148084044456482, 0.12348343431949615]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0.7025237083435059, 0.1936710923910141, 0.0439482182264328, 0.05985699221491814]</t>
+          <t>[0.727275550365448, 0.16913379728794098, 0.043377649039030075, 0.06021301448345184]</t>
         </is>
       </c>
     </row>
@@ -2366,16 +2366,16 @@
         <v>2.812920289392093</v>
       </c>
       <c r="F57" t="n">
-        <v>1.75146496295929</v>
+        <v>1.13315737247467</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.24858878552913666, 0.616948127746582, 0.13446304202079773]</t>
+          <t>[0.23467956483364105, 0.6271094679832458, 0.1382109671831131]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0.576728880405426, 0.27447882294654846, 0.07677315920591354, 0.07201912999153137]</t>
+          <t>[0.608210027217865, 0.2456018477678299, 0.07300497591495514, 0.0731830820441246]</t>
         </is>
       </c>
     </row>
@@ -2400,16 +2400,16 @@
         <v>0.1537383059907924</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4678038358688354</v>
+        <v>-0.5280530452728271</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2434,16 +2434,16 @@
         <v>0.1547646278697519</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.467530369758606</v>
+        <v>-0.5212937593460083</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.18028949201107025, 0.6664734482765198, 0.15323711931705475]</t>
+          <t>[0.17667633295059204, 0.6722461581230164, 0.1510775238275528]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0.7408145666122437, 0.15216991305351257, 0.05201354995369911, 0.05500197038054466]</t>
+          <t>[0.7661446928977966, 0.12741921842098236, 0.05197717249393463, 0.05445895716547966]</t>
         </is>
       </c>
     </row>
@@ -2468,16 +2468,16 @@
         <v>0.1500109696942008</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4734163284301758</v>
+        <v>-0.5207880139350891</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.17803627252578735, 0.6809097528457642, 0.1410539746284485]</t>
+          <t>[0.1742326319217682, 0.6862360835075378, 0.13953129947185516]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0.6829774379730225, 0.20419102907180786, 0.05344817787408829, 0.059383418411016464]</t>
+          <t>[0.7119869589805603, 0.17480653524398804, 0.05364366993308067, 0.05956286936998367]</t>
         </is>
       </c>
     </row>
@@ -2502,16 +2502,16 @@
         <v>0.141638448800038</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4923462867736816</v>
+        <v>-0.5234081149101257</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.183558389544487, 0.6734940409660339, 0.14294761419296265]</t>
+          <t>[0.1809418648481369, 0.6736042499542236, 0.14545390009880066]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0.6713229417800903, 0.2051134705543518, 0.0613216869533062, 0.062241848558187485]</t>
+          <t>[0.6818417906761169, 0.19246579706668854, 0.0616471953690052, 0.06404522061347961]</t>
         </is>
       </c>
     </row>
@@ -2536,16 +2536,16 @@
         <v>0.1416062084368513</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4790143668651581</v>
+        <v>-0.5568689107894897</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2570,16 +2570,16 @@
         <v>0.1408474451832179</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.477728545665741</v>
+        <v>-0.535006046295166</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.17159704864025116, 0.6847022771835327, 0.14370062947273254]</t>
+          <t>[0.16919544339179993, 0.688909113407135, 0.14189545810222626]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0.7551458477973938, 0.14610259234905243, 0.0456184484064579, 0.05313306301832199]</t>
+          <t>[0.779432475566864, 0.12278223037719727, 0.04535440728068352, 0.05243085324764252]</t>
         </is>
       </c>
     </row>
@@ -2604,16 +2604,16 @@
         <v>0.1317459888074513</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4584974348545074</v>
+        <v>-0.507817268371582</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.16612598299980164, 0.702899694442749, 0.13097435235977173]</t>
+          <t>[0.1639203578233719, 0.7062817811965942, 0.12979787588119507]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0.7138707637786865, 0.18282951414585114, 0.04662833362817764, 0.056671373546123505]</t>
+          <t>[0.7397631406784058, 0.15666784346103668, 0.04680599644780159, 0.056762974709272385]</t>
         </is>
       </c>
     </row>
@@ -2638,16 +2638,16 @@
         <v>0.5018991442427578</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1897361725568771</v>
+        <v>-0.2999965250492096</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.18421483039855957, 0.6819690465927124, 0.13381606340408325]</t>
+          <t>[0.17978772521018982, 0.6866695284843445, 0.1335427612066269]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0.6403017044067383, 0.23848310112953186, 0.059811223298311234, 0.061403997242450714]</t>
+          <t>[0.6716657280921936, 0.2069433480501175, 0.05952038988471031, 0.06187046319246292]</t>
         </is>
       </c>
     </row>
@@ -2672,16 +2672,16 @@
         <v>0.1603390978028845</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4618741571903229</v>
+        <v>-0.5128111839294434</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2706,16 +2706,16 @@
         <v>0.1582288502237622</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4636785984039307</v>
+        <v>-0.5161148309707642</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.1640568971633911, 0.7052037119865417, 0.1307394802570343]</t>
+          <t>[0.16309568285942078, 0.7063184380531311, 0.13058589398860931]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0.7605569958686829, 0.13884297013282776, 0.043870389461517334, 0.056729692965745926]</t>
+          <t>[0.782366931438446, 0.11922945082187653, 0.042864345014095306, 0.055539295077323914]</t>
         </is>
       </c>
     </row>
@@ -2740,16 +2740,16 @@
         <v>0.1596412632249457</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4639975726604462</v>
+        <v>-0.5125991702079773</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.15820889174938202, 0.7274637222290039, 0.11432735621929169]</t>
+          <t>[0.15758749842643738, 0.7272229194641113, 0.1151895597577095]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0.7359875440597534, 0.1619747132062912, 0.044113077223300934, 0.05792466551065445]</t>
+          <t>[0.7566728591918945, 0.14162996411323547, 0.043719399720430374, 0.05797776207327843]</t>
         </is>
       </c>
     </row>
@@ -2774,16 +2774,16 @@
         <v>0.1574665429863385</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4790511131286621</v>
+        <v>-0.513592541217804</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.1608768254518509, 0.7304158210754395, 0.10870739072561264]</t>
+          <t>[0.16245833039283752, 0.725382924079895, 0.11215873062610626]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0.7471127510070801, 0.14832250773906708, 0.04841117188334465, 0.05615363270044327]</t>
+          <t>[0.7524917721748352, 0.14075541496276855, 0.04868330806493759, 0.058069609105587006]</t>
         </is>
       </c>
     </row>
@@ -2808,16 +2808,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.462616354227066</v>
+        <v>-0.5147189497947693</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2842,16 +2842,16 @@
         <v>0.1582288502237622</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4655717015266418</v>
+        <v>-0.5186602473258972</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.1695391982793808, 0.6873301863670349, 0.14313064515590668]</t>
+          <t>[0.16628411412239075, 0.6924717426300049, 0.14124412834644318]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0.7332367897033691, 0.16752353310585022, 0.044218529015779495, 0.05502113699913025]</t>
+          <t>[0.7641195058822632, 0.1382131278514862, 0.043834224343299866, 0.053833089768886566]</t>
         </is>
       </c>
     </row>
@@ -2876,16 +2876,16 @@
         <v>0.1387216246250589</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4829283952713013</v>
+        <v>-0.5290579199790955</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.15820889174938202, 0.7274637222290039, 0.11432735621929169]</t>
+          <t>[0.15758749842643738, 0.7272229194641113, 0.1151895597577095]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0.7359875440597534, 0.1619747132062912, 0.044113077223300934, 0.05792466551065445]</t>
+          <t>[0.7566728591918945, 0.14162996411323547, 0.043719399720430374, 0.05797776207327843]</t>
         </is>
       </c>
     </row>
@@ -2910,16 +2910,16 @@
         <v>0.1412893874460012</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4926395416259766</v>
+        <v>-0.52362459897995</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.1614363193511963, 0.7277994751930237, 0.11076419055461884]</t>
+          <t>[0.161305770277977, 0.7262723445892334, 0.11242189258337021]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0.7254514098167419, 0.1697893589735031, 0.04759731888771057, 0.0571618489921093]</t>
+          <t>[0.7403460144996643, 0.15372523665428162, 0.04762692004442215, 0.0583018995821476]</t>
         </is>
       </c>
     </row>
@@ -2944,16 +2944,16 @@
         <v>0.1537383059907924</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.467061847448349</v>
+        <v>-0.5261457562446594</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -2978,16 +2978,16 @@
         <v>0.1623770266700048</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4601101577281952</v>
+        <v>-0.5113167762756348</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.18028949201107025, 0.6664734482765198, 0.15323711931705475]</t>
+          <t>[0.17667633295059204, 0.6722461581230164, 0.1510775238275528]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0.7408145666122437, 0.15216991305351257, 0.05201354995369911, 0.05500197038054466]</t>
+          <t>[0.7661446928977966, 0.12741921842098236, 0.05197717249393463, 0.05445895716547966]</t>
         </is>
       </c>
     </row>
@@ -3012,16 +3012,16 @@
         <v>0.1603390978028845</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4631569981575012</v>
+        <v>-0.511868417263031</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.15754075348377228, 0.7207615375518799, 0.12169767171144485]</t>
+          <t>[0.1573100984096527, 0.7208989858627319, 0.12179090827703476]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0.7458975911140442, 0.15708409249782562, 0.04194706305861473, 0.05507132038474083]</t>
+          <t>[0.7650763988494873, 0.13773462176322937, 0.041858915239572525, 0.055330123752355576]</t>
         </is>
       </c>
     </row>
@@ -3046,16 +3046,16 @@
         <v>0.1604954976794293</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4765068292617798</v>
+        <v>-0.5117141604423523</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.16126161813735962, 0.7318841218948364, 0.10685425251722336]</t>
+          <t>[0.1620722860097885, 0.7282865643501282, 0.10964114218950272]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0.7385349869728088, 0.15737982094287872, 0.04716181755065918, 0.05692342296242714]</t>
+          <t>[0.7477245926856995, 0.1464817076921463, 0.04722336307168007, 0.058570314198732376]</t>
         </is>
       </c>
     </row>
@@ -3080,16 +3080,16 @@
         <v>0.1559123897833419</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4646415710449219</v>
+        <v>-0.5199247598648071</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.16615407168865204, 0.6955625414848328, 0.138283371925354]</t>
+          <t>[0.1641465723514557, 0.699104905128479, 0.1367485374212265]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0.7471465468406677, 0.15522515773773193, 0.043463416397571564, 0.05416484922170639]</t>
+          <t>[0.7715573906898499, 0.13143335282802582, 0.043295204639434814, 0.05371403694152832]</t>
         </is>
       </c>
     </row>
@@ -3114,16 +3114,16 @@
         <v>0.1596809032832655</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4541697800159454</v>
+        <v>-0.503329336643219</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.1716381013393402, 0.6796090006828308, 0.14875289797782898]</t>
+          <t>[0.16777198016643524, 0.6852556467056274, 0.1469723880290985]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0.6989771723747253, 0.1925467550754547, 0.049689047038555145, 0.058787014335393906]</t>
+          <t>[0.7356175184249878, 0.1578771471977234, 0.04911443963646889, 0.05739086866378784]</t>
         </is>
       </c>
     </row>
@@ -3148,16 +3148,16 @@
         <v>0.1450841351672169</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3811058402061462</v>
+        <v>-0.4405318796634674</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.16556400060653687, 0.7049955725669861, 0.12944041192531586]</t>
+          <t>[0.1632276475429535, 0.7083852887153625, 0.12838710844516754]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0.7066551446914673, 0.18968215584754944, 0.04636279121041298, 0.05729994550347328]</t>
+          <t>[0.7340009212493896, 0.16221244633197784, 0.04642587900161743, 0.05736073479056358]</t>
         </is>
       </c>
     </row>
@@ -3182,16 +3182,16 @@
         <v>1.28987312209924</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4721426367759705</v>
+        <v>0.1886567175388336</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.2065194845199585, 0.6391782760620117, 0.15430228412151337]</t>
+          <t>[0.20019958913326263, 0.6453426480293274, 0.15445776283740997]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0.588312029838562, 0.2695966958999634, 0.07510100305080414, 0.06699027121067047]</t>
+          <t>[0.6124025583267212, 0.2442542016506195, 0.07501573860645294, 0.06832752376794815]</t>
         </is>
       </c>
     </row>
@@ -3216,16 +3216,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3508810102939606</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -3250,16 +3250,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F83" t="n">
-        <v>1.489495038986206</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -3277,23 +3277,23 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5.250032624631748</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F84" t="n">
-        <v>1.461962342262268</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -3306,28 +3306,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[-1.  2.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[2 1]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5.256652639763357</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F85" t="n">
-        <v>1.2177814245224</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.09964685142040253, 0.00405216496437788, 0.8963009715080261]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[0.006844513583928347, 0.021725116297602654, 0.8382874727249146, 0.13314282894134521]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -3345,23 +3345,23 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[ 1 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.5134065614280353</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.866682767868042</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[-1.  5.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3383,19 +3383,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2.815518662744684</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2144448906183243</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.003264656290411949, 0.9964267611503601, 0.00030857574893161654]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[0.9957648515701294, 0.001859558280557394, 8.372793672606349e-05, 0.0022918758913874626]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -3408,28 +3408,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[-1.  3.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[2 2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2.804523801873941</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1956012845039368</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.003511842805892229, 0.9961876273155212, 0.00030052263173274696]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[0.9944825172424316, 0.002796623157337308, 8.116634853649884e-05, 0.0026396799366921186]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[-1.  3.  3.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3451,19 +3451,19 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.79324873806804</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F89" t="n">
-        <v>0.058890700340271</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.10527735948562622, 0.003943428862839937, 0.8907791376113892]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[0.006427029613405466, 0.020417029038071632, 0.8513542413711548, 0.12180165201425552]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -3481,23 +3481,23 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[ 0 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.1603390978028845</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.112783193588257</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[-3.  6.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3519,19 +3519,19 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.278136842127399</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.585579514503479</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.0032635247334837914, 0.9964277148246765, 0.0003087090444751084]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[0.9956002235412598, 0.001937821856699884, 8.282532508019358e-05, 0.0023791512940078974]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -3544,28 +3544,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[-3.  4.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[0 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.320625932598234</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5721406936645508</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.0032918271608650684, 0.9963995218276978, 0.0003085825883317739]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[0.9946788549423218, 0.002630379516631365, 8.088809408945963e-05, 0.0026099372189491987]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3578,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[-2.  4.  1.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[2 2]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1.312663437708707</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6376398801803589</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.0035930462181568146, 0.9960858821868896, 0.00032103361445479095]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[0.9934839606285095, 0.0032505770213901997, 8.150327630573884e-05, 0.003183989319950342]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -3617,23 +3617,23 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.110248804092407</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3655,19 +3655,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.337358439255761</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5571384429931641</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.003191707655787468, 0.9964978694915771, 0.0003103644703514874]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[0.9958648681640625, 0.0018145812209695578, 8.397073543164879e-05, 0.0022365765180438757]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -3680,28 +3680,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[-1.  4.  2.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1.331840627236623</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5663344860076904</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.003305269405245781, 0.9963892698287964, 0.00030550104565918446]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[0.9949878454208374, 0.0024546028580516577, 8.452883048448712e-05, 0.0024730560835450888]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -3714,28 +3714,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[-1.  4.  3.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.323936557889329</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.6323365569114685</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.12694844603538513, 0.004768039099872112, 0.8682834506034851]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[0.008820537477731705, 0.021129325032234192, 0.8471242189407349, 0.12292587757110596]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3760,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.3508810102939606</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -3794,16 +3794,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F99" t="n">
-        <v>1.489495038986206</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -3821,23 +3821,23 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5.250032624631748</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F100" t="n">
-        <v>1.461962342262268</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -3850,28 +3850,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[-1.  2.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[2 1]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5.256652639763357</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F101" t="n">
-        <v>1.2177814245224</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.09964685142040253, 0.00405216496437788, 0.8963009715080261]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[0.006844513583928347, 0.021725116297602654, 0.8382874727249146, 0.13314282894134521]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -3889,23 +3889,23 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[ 0 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.1623770266700048</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.109835624694824</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[-2.  6.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3927,19 +3927,19 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1.320625932598234</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.5656912922859192</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.003265231614932418, 0.9964266419410706, 0.00030809108284302056]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[0.9956619143486023, 0.0018965261988341808, 8.260799950221553e-05, 0.002358906902372837]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -3952,28 +3952,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[-2.  4.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.3184901117428</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.5731454491615295</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.0032798100728541613, 0.9964243769645691, 0.00029584745061583817]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[0.9949304461479187, 0.0024283903185278177, 7.693198858760297e-05, 0.002564194379374385]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -3986,28 +3986,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[-2.  4.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1.312663437708707</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.6376398801803589</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.2175300121307373, 0.5706788897514343, 0.21179111301898956]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[0.9506755471229553, 0.014682730659842491, 0.0043585095554590225, 0.030283229425549507]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4025,23 +4025,23 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[ 0 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1603390978028845</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.113015055656433</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[-3.  6.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4063,19 +4063,19 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.278136842127399</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.5878984928131104</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.0032635247334837914, 0.9964277148246765, 0.0003087090444751084]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[0.9956002235412598, 0.001937821856699884, 8.282532508019358e-05, 0.0023791512940078974]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4088,28 +4088,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[-3.  4.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1.276328901586559</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.5953312516212463</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.0032918271608650684, 0.9963995218276978, 0.0003085825883317739]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[0.9946788549423218, 0.002630379516631365, 8.088809408945963e-05, 0.0026099372189491987]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4122,28 +4122,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[-3.  4.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[2 2]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.262681164087025</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.6611537337303162</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.09861372411251068, 0.009040909819304943, 0.8923453688621521]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[0.8299902081489563, 0.042767953127622604, 0.03885537013411522, 0.08838648349046707]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4168,16 +4168,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.350979208946228</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4202,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F111" t="n">
-        <v>1.488513350486755</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4229,23 +4229,23 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[2 2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.233578242378579</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F112" t="n">
-        <v>1.45214581489563</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[-1.  2.  3.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4267,19 +4267,19 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.21252849203832</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F113" t="n">
-        <v>1.197023510932922</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.10082152485847473, 0.004265283700078726, 0.8949132561683655]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[0.006575079634785652, 0.02205875888466835, 0.8440163135528564, 0.12734991312026978]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4304,16 +4304,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.3508918881416321</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4338,16 +4338,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F115" t="n">
-        <v>1.489386439323425</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4365,23 +4365,23 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5.250032624631748</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F116" t="n">
-        <v>1.460876822471619</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4394,28 +4394,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[-1.  2.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>5.233578242378579</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F117" t="n">
-        <v>1.206926107406616</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.09964685142040253, 0.00405216496437788, 0.8963009715080261]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[0.006844513583928347, 0.021725116297602654, 0.8382874727249146, 0.13314282894134521]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4440,16 +4440,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.3510083258152008</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4474,16 +4474,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F119" t="n">
-        <v>1.488222002983093</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4501,23 +4501,23 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5.225596900902903</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F120" t="n">
-        <v>1.449232816696167</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[0. 2. 1.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4539,19 +4539,19 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5.23042075345536</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F121" t="n">
-        <v>1.205440640449524</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.10353143513202667, 0.00435613002628088, 0.8921124339103699]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[0.0091317817568779, 0.02389863319694996, 0.8039283156394958, 0.16304121911525726]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4569,23 +4569,23 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[1 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.1416062084368513</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F122" t="n">
-        <v>-1.161782026290894</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[-1.  7.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4607,19 +4607,19 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.5134065614280353</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.9874399304389954</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.0032916180789470673, 0.9963957667350769, 0.00031263602431863546]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[0.9956503510475159, 0.001904069446027279, 8.342150977114215e-05, 0.0023621718864887953]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4632,28 +4632,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[-1.  5.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[2 2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.5081677191170233</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.9931270480155945</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.00329254986718297, 0.9964035749435425, 0.0003038750437553972]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[0.9951730370521545, 0.0022309445776045322, 7.836510485503823e-05, 0.0025175714399665594]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4666,28 +4666,28 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[-1.  5.  3.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[0 2]</t>
+          <t>[2 1]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.4885199783267702</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F125" t="n">
-        <v>-1.025352239608765</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.004728761035948992, 0.9948084950447083, 0.00046272570034489036]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[0.9901326894760132, 0.004053694196045399, 0.00027233880246058106, 0.005541324149817228]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4712,16 +4712,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.5583857297897339</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4739,23 +4739,23 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[ 0 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1.278136842127399</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.5855520963668823</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4768,28 +4768,28 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[-3.  4.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[0 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1.320625932598234</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.5718665719032288</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.0032918271608650684, 0.9963995218276978, 0.0003085825883317739]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[0.9946788549423218, 0.002630379516631365, 8.088809408945963e-05, 0.0026099372189491987]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4802,28 +4802,28 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[-2.  4.  1.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1.3184901117428</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.6348987817764282</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.0035930462181568146, 0.9960858821868896, 0.00032103361445479095]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[0.9934839606285095, 0.0032505770213901997, 8.150327630573884e-05, 0.003183989319950342]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4848,16 +4848,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.3508918881416321</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -4882,16 +4882,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F131" t="n">
-        <v>1.489386439323425</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -4909,23 +4909,23 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5.250032624631748</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F132" t="n">
-        <v>1.460876822471619</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -4938,28 +4938,28 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[-1.  2.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5.233578242378579</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F133" t="n">
-        <v>1.206926107406616</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.09964685142040253, 0.00405216496437788, 0.8963009715080261]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[0.006844513583928347, 0.021725116297602654, 0.8382874727249146, 0.13314282894134521]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -4977,23 +4977,23 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[1 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.1416062084368513</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F134" t="n">
-        <v>-1.161752700805664</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[-1.  7.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.5134065614280353</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.9871468544006348</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.0032916180789470673, 0.9963957667350769, 0.00031263602431863546]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[0.9956503510475159, 0.001904069446027279, 8.342150977114215e-05, 0.0023621718864887953]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5040,28 +5040,28 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[-1.  5.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.5124333770144885</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.9901959896087646</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.00329254986718297, 0.9964035749435425, 0.0003038750437553972]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[0.9951730370521545, 0.0022309445776045322, 7.836510485503823e-05, 0.0025175714399665594]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[-1.  5.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5083,19 +5083,19 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.5081677191170233</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F137" t="n">
-        <v>-1.016109108924866</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.003279711352661252, 0.9964190721511841, 0.0003012654487974942]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[0.9944295883178711, 0.002674216404557228, 7.645627192687243e-05, 0.002819811925292015]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5120,16 +5120,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.3509820699691772</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5154,16 +5154,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F139" t="n">
-        <v>1.488484144210815</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[ 2 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.229310057140871</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F140" t="n">
-        <v>1.451855778694153</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[-1.  2. -1.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5219,19 +5219,19 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5.249046358921846</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F141" t="n">
-        <v>1.214203000068665</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.00550838652998209, 0.9939498901367188, 0.0005417569191195071]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>[0.989371657371521, 0.005778789985924959, 0.00015589242684654891, 0.004693649243563414]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5256,16 +5256,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.5560282468795776</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5283,23 +5283,23 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[ 2 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1.326616768245628</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.5619773864746094</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5312,28 +5312,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[-1.  4. -1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1.334912767304563</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.5641903877258301</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.003555279690772295, 0.9961254000663757, 0.0003193619486410171]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[0.9946812987327576, 0.0025439225137233734, 8.354539022548124e-05, 0.002691151574254036]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[-1.  4.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5355,19 +5355,19 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1.338792192740977</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.6253477931022644</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.0035009069833904505, 0.996185839176178, 0.00031327115721069276]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[0.9937586784362793, 0.003114565508440137, 8.393895404879004e-05, 0.0030428431928157806]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5385,23 +5385,23 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[1 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.1416062084368513</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F146" t="n">
-        <v>-1.161752700805664</v>
+        <v>0.1895656883716583</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[-1.  7.  1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5423,19 +5423,19 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.5134065614280353</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.9871468544006348</v>
+        <v>0.1895657926797867</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.0032916180789470673, 0.9963957667350769, 0.00031263602431863546]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>[0.9956503510475159, 0.001904069446027279, 8.342150977114215e-05, 0.0023621718864887953]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5448,28 +5448,28 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[-1.  5.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.5124333770144885</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.9901959896087646</v>
+        <v>0.209442988038063</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.00329254986718297, 0.9964035749435425, 0.0003038750437553972]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>[0.9951730370521545, 0.0022309445776045322, 7.836510485503823e-05, 0.0025175714399665594]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5482,28 +5482,28 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[-1.  5.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.5081677191170233</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F149" t="n">
-        <v>-1.016109108924866</v>
+        <v>0.230221688747406</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.003279711352661252, 0.9964190721511841, 0.0003012654487974942]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>[0.9944295883178711, 0.002674216404557228, 7.645627192687243e-05, 0.002819811925292015]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5528,16 +5528,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.3508918881416321</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5562,16 +5562,16 @@
         <v>5.256652639763357</v>
       </c>
       <c r="F151" t="n">
-        <v>1.489386439323425</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5589,23 +5589,23 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5.250032624631748</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F152" t="n">
-        <v>1.460876822471619</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.08964778482913971, 0.0036466463934630156, 0.9067056179046631]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>[0.01043334137648344, 0.026214424520730972, 0.8769497871398926, 0.08640238642692566]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[-1.  2.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5627,19 +5627,19 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>5.233578242378579</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F153" t="n">
-        <v>1.206926107406616</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.09964685142040253, 0.00405216496437788, 0.8963009715080261]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>[0.006844513583928347, 0.021725116297602654, 0.8382874727249146, 0.13314282894134521]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5664,16 +5664,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.598545253276825</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5691,23 +5691,23 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[1 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.5134065614280353</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.9871468544006348</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5720,28 +5720,28 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[-1.  5.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.5124333770144885</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.9901959896087646</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.00329254986718297, 0.9964035749435425, 0.0003038750437553972]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>[0.9951730370521545, 0.0022309445776045322, 7.836510485503823e-05, 0.0025175714399665594]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[-1.  5.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5763,19 +5763,19 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.5081677191170233</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F157" t="n">
-        <v>-1.016109108924866</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[0.003279711352661252, 0.9964190721511841, 0.0003012654487974942]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>[0.9944295883178711, 0.002674216404557228, 7.645627192687243e-05, 0.002819811925292015]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5800,16 +5800,16 @@
         <v>1.338792192740977</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.6169728636741638</v>
+        <v>0.1880446970462799</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[0.0032847465481609106, 0.9964058995246887, 0.00030930404318496585]</t>
+          <t>[0.0011391513980925083, 0.9983280301094055, 0.0005328413099050522]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>[0.9955599308013916, 0.0019715798553079367, 8.146798791131005e-05, 0.002387025160714984]</t>
+          <t>[0.9987986087799072, 0.0004531316226348281, 0.0002481573901604861, 0.0005000862875021994]</t>
         </is>
       </c>
     </row>
@@ -5827,23 +5827,23 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[1 2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F159" t="n">
-        <v>-1.171423435211182</v>
+        <v>0.1880431622266769</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.003246547654271126, 0.9964472651481628, 0.00030621830956079066]</t>
+          <t>[0.0011581548023968935, 0.9983114004135132, 0.00053050258429721]</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>[0.9958459734916687, 0.001839021104387939, 8.522267307853326e-05, 0.0022297892719507217]</t>
+          <t>[0.9987849593162537, 0.00045992829836905, 0.0002584666362963617, 0.0004966302076354623]</t>
         </is>
       </c>
     </row>
@@ -5856,28 +5856,28 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F160" t="n">
-        <v>-1.172717332839966</v>
+        <v>0.2035394012928009</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.0032961382530629635, 0.9963961243629456, 0.0003078038280364126]</t>
+          <t>[0.001169585040770471, 0.9983053207397461, 0.0005251240800134838]</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>[0.9952266216278076, 0.0021789665333926678, 7.940822979435325e-05, 0.0025150205474346876]</t>
+          <t>[0.9987941980361938, 0.0004945240798406303, 0.00020621750445570797, 0.0005050296895205975]</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5899,19 +5899,19 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.43492842379617</v>
       </c>
       <c r="F161" t="n">
-        <v>-1.181825041770935</v>
+        <v>0.171793207526207</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.003231471637263894, 0.9964642524719238, 0.00030426005832850933]</t>
+          <t>[0.013530127704143524, 0.0008605880429968238, 0.985609233379364]</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>[0.9947205781936646, 0.0024888133630156517, 7.738310523563996e-05, 0.0027131664101034403]</t>
+          <t>[0.01616790145635605, 0.39352378249168396, 0.5734394788742065, 0.016868803650140762]</t>
         </is>
       </c>
     </row>
@@ -5929,23 +5929,23 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8041744232177734</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -5958,28 +5958,28 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8427221179008484</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -5992,28 +5992,28 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4051045477390289</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6026,28 +6026,28 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.1604954976794293</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.9105291366577148</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.0038050315342843533, 0.000428673141868785, 0.995766282081604]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>[0.003711691126227379, 0.28010424971580505, 0.7115411758422852, 0.004642876330763102]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6065,23 +6065,23 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7601025104522705</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6094,28 +6094,28 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.1559123897833419</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4020059108734131</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6128,28 +6128,28 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[-1.  6.  3.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6288488507270813</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[0.0038076580967754126, 0.00044021516805514693, 0.9957520961761475]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>[0.005315433256328106, 0.40837839245796204, 0.5813416242599487, 0.004964562598615885]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6171,19 +6171,19 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.1604954976794293</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.9105291366577148</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[0.0037822111044079065, 0.0004336442216299474, 0.9957841038703918]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>[0.005003964528441429, 0.38246968388557434, 0.6076119542121887, 0.004914368037134409]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6201,23 +6201,23 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4678856730461121</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6230,28 +6230,28 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.1511105560079979</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.2827267050743103</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6264,28 +6264,28 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[-1.  6. -1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.1426722880811475</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F172" t="n">
-        <v>-1.36658787727356</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[0.004044751171022654, 0.0004624811408575624, 0.9954928159713745]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>[0.0030661856289952993, 0.22452281415462494, 0.767835259437561, 0.004575775936245918]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[-1.  6. -2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6307,19 +6307,19 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.1330969066836528</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F173" t="n">
-        <v>-3.678953647613525</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[0.004235901869833469, 0.0004935438628308475, 0.9952705502510071]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>[0.002560072112828493, 0.16770271956920624, 0.8251603245735168, 0.0045768762938678265]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6337,23 +6337,23 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8059480786323547</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6366,28 +6366,28 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8604646921157837</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6400,28 +6400,28 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5825394988059998</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6434,28 +6434,28 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F177" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[0.0037822111044079065, 0.0004336442216299474, 0.9957841038703918]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>[0.005003964528441429, 0.38246968388557434, 0.6076119542121887, 0.004914368037134409]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6473,23 +6473,23 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F178" t="n">
-        <v>0.58220374584198</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6502,28 +6502,28 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8604646921157837</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6536,28 +6536,28 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5825394988059998</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6570,28 +6570,28 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F181" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[0.0037822111044079065, 0.0004336442216299474, 0.9957841038703918]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>[0.005003964528441429, 0.38246968388557434, 0.6076119542121887, 0.004914368037134409]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6609,23 +6609,23 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F182" t="n">
-        <v>0.4856011867523193</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6638,28 +6638,28 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.1511105560079979</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.1055567041039467</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6672,28 +6672,28 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[-1.  6. -1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4051045477390289</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[0.004044751171022654, 0.0004624811408575624, 0.9954928159713745]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>[0.0030661856289952993, 0.22452281415462494, 0.767835259437561, 0.004575775936245918]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6706,28 +6706,28 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.1604954976794293</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.9105291366577148</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[0.0038050315342843533, 0.000428673141868785, 0.995766282081604]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>[0.003711691126227379, 0.28010424971580505, 0.7115411758422852, 0.004642876330763102]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6745,23 +6745,23 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F186" t="n">
-        <v>0.58220374584198</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6774,28 +6774,28 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8604646921157837</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6808,28 +6808,28 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5825394988059998</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6842,28 +6842,28 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F189" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[0.0037822111044079065, 0.0004336442216299474, 0.9957841038703918]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>[0.005003964528441429, 0.38246968388557434, 0.6076119542121887, 0.004914368037134409]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -6881,23 +6881,23 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8032258749008179</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -6910,28 +6910,28 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8332394957542419</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -6944,28 +6944,28 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3102771043777466</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6987,19 +6987,19 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.1511105560079979</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F193" t="n">
-        <v>-1.858807921409607</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[0.0038050315342843533, 0.000428673141868785, 0.995766282081604]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>[0.003711691126227379, 0.28010424971580505, 0.7115411758422852, 0.004642876330763102]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7017,23 +7017,23 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8059480786323547</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7046,28 +7046,28 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8604646921157837</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7080,28 +7080,28 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5825394988059998</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7114,28 +7114,28 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F197" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[0.0037822111044079065, 0.0004336442216299474, 0.9957841038703918]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>[0.005003964528441429, 0.38246968388557434, 0.6076119542121887, 0.004914368037134409]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7153,23 +7153,23 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7763229012489319</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7182,28 +7182,28 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[ 2 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.1574665429863385</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5642127394676208</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7216,28 +7216,28 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.1604954976794293</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F200" t="n">
-        <v>0.6805528998374939</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[0.0038735782727599144, 0.00043913847184740007, 0.9956871867179871]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>[0.0036699974443763494, 0.28028813004493713, 0.7113804221153259, 0.004661370534449816]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7259,19 +7259,19 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F201" t="n">
-        <v>-1.216582894325256</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[0.0037580193020403385, 0.0004260897694621235, 0.9958159327507019]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>[0.004395154770463705, 0.33663445711135864, 0.6541870832443237, 0.004783291835337877]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7289,23 +7289,23 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F202" t="n">
-        <v>0.8059480786323547</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7318,28 +7318,28 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8604646921157837</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7352,28 +7352,28 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5825394988059998</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7386,28 +7386,28 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F205" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[0.0037822111044079065, 0.0004336442216299474, 0.9957841038703918]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>[0.005003964528441429, 0.38246968388557434, 0.6076119542121887, 0.004914368037134409]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7425,23 +7425,23 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5794815421104431</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7454,28 +7454,28 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8332394957542419</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7488,28 +7488,28 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F208" t="n">
-        <v>0.3102771043777466</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7531,19 +7531,19 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.1511105560079979</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F209" t="n">
-        <v>-1.858807921409607</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[0.0038050315342843533, 0.000428673141868785, 0.995766282081604]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>[0.003711691126227379, 0.28010424971580505, 0.7115411758422852, 0.004642876330763102]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7561,23 +7561,23 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7608432769775391</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7590,28 +7590,28 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.1559123897833419</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F211" t="n">
-        <v>0.4094136953353882</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7624,28 +7624,28 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[-1.  6.  3.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[ 2 -2]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.1604954976794293</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F212" t="n">
-        <v>0.7029268741607666</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[0.0038076580967754126, 0.00044021516805514693, 0.9957520961761475]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>[0.005315433256328106, 0.40837839245796204, 0.5813416242599487, 0.004964562598615885]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7658,28 +7658,28 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.1596809032832655</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.9928385615348816</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[0.0037580193020403385, 0.0004260897694621235, 0.9958159327507019]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>[0.004395154770463705, 0.33663445711135864, 0.6541870832443237, 0.004783291835337877]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7697,23 +7697,23 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F214" t="n">
-        <v>0.8032258749008179</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7726,28 +7726,28 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F215" t="n">
-        <v>0.8332394957542419</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7760,28 +7760,28 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F216" t="n">
-        <v>0.3102771043777466</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7803,19 +7803,19 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.1511105560079979</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F217" t="n">
-        <v>-1.858807921409607</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[0.0038050315342843533, 0.000428673141868785, 0.995766282081604]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>[0.003711691126227379, 0.28010424971580505, 0.7115411758422852, 0.004642876330763102]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7833,23 +7833,23 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F218" t="n">
-        <v>0.4678856730461121</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7862,28 +7862,28 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.1511105560079979</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.2827267050743103</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -7896,28 +7896,28 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[-1.  6. -1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.1426722880811475</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F220" t="n">
-        <v>-1.36658787727356</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[0.004044751171022654, 0.0004624811408575624, 0.9954928159713745]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>[0.0030661856289952993, 0.22452281415462494, 0.767835259437561, 0.004575775936245918]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[-1.  6. -2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7939,19 +7939,19 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.1330969066836528</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F221" t="n">
-        <v>-3.678953647613525</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[0.004235901869833469, 0.0004935438628308475, 0.9952705502510071]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>[0.002560072112828493, 0.16770271956920624, 0.8251603245735168, 0.0045768762938678265]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -7969,23 +7969,23 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F222" t="n">
-        <v>0.7501366138458252</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -7998,28 +7998,28 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.1559123897833419</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F223" t="n">
-        <v>0.3023468255996704</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -8032,28 +8032,28 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[-1.  6.  3.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.1502761162516083</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.3677448034286499</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[0.0038076580967754126, 0.00044021516805514693, 0.9957520961761475]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>[0.005315433256328106, 0.40837839245796204, 0.5813416242599487, 0.004964562598615885]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[-1.  6.  4.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8075,19 +8075,19 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F225" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[0.003945712931454182, 0.00046228463179431856, 0.995591938495636]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>[0.005898782983422279, 0.44238924980163574, 0.5466127395629883, 0.005099170841276646]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -8105,23 +8105,23 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F226" t="n">
-        <v>0.7501366138458252</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -8134,28 +8134,28 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.1559123897833419</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F227" t="n">
-        <v>0.3023468255996704</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -8168,28 +8168,28 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[-1.  6.  3.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.1502761162516083</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.3677448034286499</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[0.0038076580967754126, 0.00044021516805514693, 0.9957520961761475]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>[0.005315433256328106, 0.40837839245796204, 0.5813416242599487, 0.004964562598615885]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[-1.  6.  4.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -8211,19 +8211,19 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.1559123897833419</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F229" t="n">
-        <v>-1.373619318008423</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[0.003945712931454182, 0.00046228463179431856, 0.995591938495636]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>[0.005898782983422279, 0.44238924980163574, 0.5466127395629883, 0.005099170841276646]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -8241,23 +8241,23 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.1574665429863385</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F230" t="n">
-        <v>0.4697045087814331</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -8270,28 +8270,28 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.1511105560079979</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.2645248770713806</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[0.003955765627324581, 0.00045065657468512654, 0.9955936074256897]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>[0.003678249893710017, 0.28214550018310547, 0.7094862461090088, 0.004689931869506836]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -8304,28 +8304,28 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[-1.  6. -1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.1426722880811475</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F232" t="n">
-        <v>-1.184572696685791</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[0.004044751171022654, 0.0004624811408575624, 0.9954928159713745]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>[0.0030661856289952993, 0.22452281415462494, 0.767835259437561, 0.004575775936245918]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -8338,28 +8338,28 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[-1.  6. -2.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.1511105560079979</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F233" t="n">
-        <v>-1.858807921409607</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[0.004235901869833469, 0.0004935438628308475, 0.9952705502510071]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>[0.002560072112828493, 0.16770271956920624, 0.8251603245735168, 0.0045768762938678265]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -8377,23 +8377,23 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.1596809032832655</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F234" t="n">
-        <v>0.8041744232177734</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -8406,28 +8406,28 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[-1.  6.  2.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.1604954976794293</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F235" t="n">
-        <v>0.8427221179008484</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[0.003800136735662818, 0.00043524662032723427, 0.9957646131515503]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>[0.004727339372038841, 0.3677509129047394, 0.6226651072502136, 0.004856637679040432]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -8440,28 +8440,28 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[-1.  6.  1.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[ 2 -1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.1574665429863385</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F236" t="n">
-        <v>0.4051045477390289</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[0.0037914940621703863, 0.0004310821241233498, 0.9957773685455322]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>[0.0042891367338597775, 0.3322429060935974, 0.6586942672729492, 0.004773693159222603]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -8474,28 +8474,28 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[-1.  6.  0.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.1604954976794293</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.9105291366577148</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>[0.0038050315342843533, 0.000428673141868785, 0.995766282081604]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>[0.003711691126227379, 0.28010424971580505, 0.7115411758422852, 0.004642876330763102]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
@@ -8513,23 +8513,23 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[0 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.1537383059907924</v>
+        <v>1.338792192740977</v>
       </c>
       <c r="F238" t="n">
-        <v>0.1393856704235077</v>
+        <v>-0.02145273424685001</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[0.0038269360084086657, 0.00043574132723733783, 0.9957373142242432]</t>
+          <t>[0.00031329761259257793, 0.9995753169059753, 0.00011133279622299597]</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>[0.004244389943778515, 0.3297990560531616, 0.661181628704071, 0.00477497698739171]</t>
+          <t>[0.9994539618492126, 7.3623978096293285e-06, 0.00019280599371995777, 0.00034590373979881406]</t>
         </is>
       </c>
     </row>
@@ -8542,28 +8542,28 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[0. 6. 1.]</t>
+          <t>[-1.  4.  1.]</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.1547646278697519</v>
+        <v>5.256652639763357</v>
       </c>
       <c r="F239" t="n">
-        <v>0.1993843764066696</v>
+        <v>0.01430365163832903</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[0.0038665588945150375, 0.0004447367391549051, 0.9956887364387512]</t>
+          <t>[0.0003082961484324187, 0.9995794892311096, 0.00011220698797842488]</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>[0.004134234972298145, 0.32122093439102173, 0.6698984503746033, 0.004746308084577322]</t>
+          <t>[0.9994705319404602, 7.419231224048417e-06, 0.00018910481594502926, 0.0003330236941110343]</t>
         </is>
       </c>
     </row>
@@ -8576,28 +8576,28 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[0. 6. 2.]</t>
+          <t>[-1.  2.  1.]</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 1 -2]</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.1523926756911252</v>
+        <v>15.58595282041618</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.2376444786787033</v>
+        <v>-0.07607286423444748</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[0.0037678235676139593, 0.00043516900041140616, 0.9957970380783081]</t>
+          <t>[0.0003413405211176723, 0.9995517134666443, 0.00010690070484997705]</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>[0.0047692591324448586, 0.37081828713417053, 0.6195611357688904, 0.004851331934332848]</t>
+          <t>[0.9994572997093201, 7.341038326558191e-06, 0.00018056592671200633, 0.00035473733441904187]</t>
         </is>
       </c>
     </row>
@@ -8610,28 +8610,28 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[0. 6. 3.]</t>
+          <t>[-1.  0.  1.]</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>[2 1]</t>
+          <t>[ 2 -1]</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.1476224770124427</v>
+        <v>15.56833540376635</v>
       </c>
       <c r="F241" t="n">
-        <v>-2.211252212524414</v>
+        <v>-0.1416095644235611</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[0.0038109496235847473, 0.00044458569027483463, 0.995744526386261]</t>
+          <t>[0.0004272465594112873, 0.00023213480017147958, 0.9993405938148499]</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>[0.005461716093122959, 0.4159625172615051, 0.5735812783241272, 0.004994488321244717]</t>
+          <t>[0.000642700120806694, 0.9987278580665588, 0.00029936712235212326, 0.00033006787998601794]</t>
         </is>
       </c>
     </row>
